--- a/Consult.xlsx
+++ b/Consult.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\administrator\DS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
@@ -130,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,12 +155,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,7 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -181,6 +192,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -191,6 +205,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -239,7 +256,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,7 +291,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,7 +503,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,15 +582,16 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>44957</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
